--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_15_summer_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_15_summer_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>hPk8UhYK6JQdsju</t>
+    <t>F6hqUr1ZxvyxlRi</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1580,7 +1580,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_18', 'sfh_8', 'sfh_24', 'sfh_20', 'sfh_10', 'sfh_38', 'sfh_1', 'sfh_11', 'sfh_34', 'sfh_9', 'sfh_12', 'sfh_33', 'sfh_2', 'sfh_19', 'sfh_4']</t>
+    <t>['sfh_11', 'sfh_33', 'sfh_8', 'sfh_20', 'sfh_24', 'sfh_1', 'sfh_2', 'sfh_12', 'sfh_34', 'sfh_10', 'sfh_18', 'sfh_9', 'sfh_19', 'sfh_38', 'sfh_14']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2835,11 +2835,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2848,7 +2848,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3289,7 +3289,7 @@
         <v>488</v>
       </c>
       <c r="IN2">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3362,14 +3362,14 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>328</v>
       </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
       <c r="H3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3378,7 +3378,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3714,7 +3714,7 @@
         <v>488</v>
       </c>
       <c r="IN3">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3787,11 +3787,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4">
         <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>328</v>
       </c>
       <c r="H4">
         <v>130</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4139,7 +4139,7 @@
         <v>488</v>
       </c>
       <c r="IN4">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4212,7 +4212,7 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
@@ -4384,7 +4384,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4723,7 +4723,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4799,14 +4799,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>328</v>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4815,7 +4812,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4959,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5151,7 +5148,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5202,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5211,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5224,11 +5221,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5237,7 +5234,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5396,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5678,7 +5675,7 @@
         <v>488</v>
       </c>
       <c r="IN7">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5729,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5738,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5751,7 +5748,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
@@ -5923,7 +5920,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6205,7 +6202,7 @@
         <v>488</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6262,7 +6259,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6277,7 +6274,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6317,7 +6314,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
@@ -6489,7 +6486,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6771,7 +6768,7 @@
         <v>488</v>
       </c>
       <c r="IN9">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6822,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6831,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6871,14 +6868,14 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>328</v>
       </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
       <c r="H10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6887,7 +6884,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7031,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7274,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7283,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7296,11 +7293,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11">
         <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>328</v>
       </c>
       <c r="H11">
         <v>130</v>
@@ -7456,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7699,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7708,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7721,11 +7718,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>328</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -7881,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8073,7 +8070,7 @@
         <v>488</v>
       </c>
       <c r="IN12">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8124,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8133,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8146,11 +8143,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13">
         <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>328</v>
       </c>
       <c r="H13">
         <v>130</v>
@@ -8306,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8498,7 +8495,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8549,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8558,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8571,14 +8568,14 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>328</v>
       </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8587,7 +8584,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8731,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8974,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8983,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8996,11 +8993,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9009,7 +9006,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9168,7 +9165,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9423,7 +9420,7 @@
         <v>488</v>
       </c>
       <c r="IN15">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9474,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9483,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9496,11 +9493,14 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>4</v>
+      <c r="F16" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9509,7 +9509,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9845,7 +9845,7 @@
         <v>488</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9918,11 +9918,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -9931,7 +9931,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10090,7 +10090,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10345,7 +10345,7 @@
         <v>488</v>
       </c>
       <c r="IN17">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10418,7 +10418,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
@@ -10590,7 +10590,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10945,7 +10945,7 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
@@ -11117,7 +11117,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11372,7 +11372,7 @@
         <v>488</v>
       </c>
       <c r="IN19">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11445,14 +11445,14 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>328</v>
       </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11461,7 +11461,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11797,7 +11797,7 @@
         <v>488</v>
       </c>
       <c r="IN20">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11870,11 +11870,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>328</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12295,14 +12295,14 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>328</v>
       </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
       <c r="H22">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12311,7 +12311,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12698,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12720,7 +12720,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -12892,7 +12892,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13174,7 +13174,7 @@
         <v>488</v>
       </c>
       <c r="IN23">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13231,7 +13231,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13246,7 +13246,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13286,7 +13286,7 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
@@ -13458,7 +13458,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13786,7 +13786,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -13958,7 +13958,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14213,7 +14213,7 @@
         <v>488</v>
       </c>
       <c r="IN25">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14264,7 +14264,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14286,11 +14286,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26">
         <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>328</v>
       </c>
       <c r="H26">
         <v>130</v>
@@ -14446,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14711,11 +14711,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14724,7 +14724,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -14883,7 +14883,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15238,7 +15238,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4</v>
       </c>
       <c r="H28">
@@ -15410,7 +15410,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15749,7 +15749,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15758,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15771,7 +15771,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
@@ -15943,7 +15943,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16171,7 +16171,7 @@
         <v>488</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16228,7 +16228,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16250,7 +16250,7 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4</v>
       </c>
       <c r="H30">
@@ -16422,7 +16422,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16764,7 +16764,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16831,7 +16831,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -17003,7 +17003,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17285,7 +17285,7 @@
         <v>488</v>
       </c>
       <c r="IN31">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17342,7 +17342,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17418,11 +17418,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17431,7 +17431,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17590,7 +17590,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17872,7 +17872,7 @@
         <v>488</v>
       </c>
       <c r="IN32">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17929,7 +17929,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17944,7 +17944,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17957,7 +17957,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
@@ -18129,7 +18129,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18411,7 +18411,7 @@
         <v>488</v>
       </c>
       <c r="IN33">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18471,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18484,11 +18484,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>4</v>
+      <c r="G34">
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18497,7 +18497,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18656,7 +18656,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18938,7 +18938,7 @@
         <v>488</v>
       </c>
       <c r="IN34">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18989,7 +18989,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19065,14 +19065,14 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>328</v>
       </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
       <c r="H35">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19081,7 +19081,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19225,7 +19225,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19417,7 +19417,7 @@
         <v>488</v>
       </c>
       <c r="IN35">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19468,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19490,14 +19490,14 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>328</v>
       </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19506,7 +19506,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19842,7 +19842,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19915,7 +19915,7 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>3</v>
       </c>
       <c r="H37">
@@ -20087,7 +20087,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20369,7 +20369,7 @@
         <v>488</v>
       </c>
       <c r="IN37">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20426,7 +20426,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20441,7 +20441,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20454,7 +20454,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
@@ -20626,7 +20626,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20908,7 +20908,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20959,7 +20959,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20968,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20981,7 +20981,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3</v>
       </c>
       <c r="H39">
@@ -21153,7 +21153,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21435,7 +21435,7 @@
         <v>488</v>
       </c>
       <c r="IN39">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21492,7 +21492,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21501,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21514,11 +21514,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40">
         <v>4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>328</v>
       </c>
       <c r="H40">
         <v>130</v>
@@ -21674,7 +21674,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21866,7 +21866,7 @@
         <v>488</v>
       </c>
       <c r="IN40">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21959,7 +21959,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22078,7 +22078,7 @@
         <v>488</v>
       </c>
       <c r="S2">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="T2">
         <v>1</v>
